--- a/documents/扬中-业务需求.xlsx
+++ b/documents/扬中-业务需求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="675" windowWidth="14805" windowHeight="7200" tabRatio="834" firstSheet="60" activeTab="68"/>
+    <workbookView xWindow="240" yWindow="675" windowWidth="14805" windowHeight="7200" tabRatio="834" firstSheet="58" activeTab="67"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="14" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3350" uniqueCount="2252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3368" uniqueCount="2257">
   <si>
     <t>业务：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6098,22 +6098,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ZC_EB_CHANGDI_USED_Tab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场地使用页签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>com.ufgov.zc.client.zc.changdiUsed.ZcEbChangdiUsedListPanel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -12554,6 +12538,42 @@
   </si>
   <si>
     <t>com.ufgov.zc.client.zc.password.ZcPasswordListPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZC_PASSWORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZC_PASSWORD_Tab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ysdw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码管理页签</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14587,8 +14607,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C2:C90"/>
   <sheetViews>
-    <sheetView topLeftCell="B70" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14635,7 +14655,7 @@
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.15">
@@ -14650,22 +14670,22 @@
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C14" s="1" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C15" s="1" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C16" s="1" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.15">
@@ -14773,7 +14793,7 @@
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C39" s="1" t="s">
-        <v>2148</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.15">
@@ -14848,17 +14868,17 @@
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C63" s="1" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C65" s="1" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C66" s="1" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.15">
@@ -14868,7 +14888,7 @@
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C69" s="1" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.15">
@@ -14878,12 +14898,12 @@
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C72" s="1" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C73" s="1" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.15">
@@ -14931,7 +14951,7 @@
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C90" s="1" t="s">
-        <v>2246</v>
+        <v>2242</v>
       </c>
     </row>
   </sheetData>
@@ -15289,7 +15309,7 @@
     </row>
     <row r="6" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D6" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
     </row>
   </sheetData>
@@ -19786,18 +19806,18 @@
     </row>
     <row r="21" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E21" t="s">
-        <v>2234</v>
+        <v>2230</v>
       </c>
       <c r="H21" t="s">
-        <v>2235</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="23" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E23" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
       <c r="I23" t="s">
-        <v>2237</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="24" spans="5:10" x14ac:dyDescent="0.15">
@@ -19805,7 +19825,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="25" spans="5:10" x14ac:dyDescent="0.15">
@@ -19813,7 +19833,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>2238</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="26" spans="5:10" x14ac:dyDescent="0.15">
@@ -19821,12 +19841,12 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>2239</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="27" spans="5:10" x14ac:dyDescent="0.15">
       <c r="I27" t="s">
-        <v>2240</v>
+        <v>2236</v>
       </c>
     </row>
   </sheetData>
@@ -19859,15 +19879,15 @@
         <v>791</v>
       </c>
       <c r="C8" t="s">
-        <v>2232</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="C10" t="s">
-        <v>2233</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
@@ -20004,7 +20024,7 @@
         <v>1079</v>
       </c>
       <c r="D4" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.15">
@@ -20012,15 +20032,15 @@
         <v>1074</v>
       </c>
       <c r="D6" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="F10" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
     </row>
   </sheetData>
@@ -20090,7 +20110,7 @@
         <v>1066</v>
       </c>
       <c r="C15" t="s">
-        <v>2154</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
@@ -20098,7 +20118,7 @@
         <v>1067</v>
       </c>
       <c r="C16" t="s">
-        <v>2136</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.15">
@@ -20123,12 +20143,12 @@
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
-        <v>2137</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C30" t="s">
-        <v>2138</v>
+        <v>2134</v>
       </c>
     </row>
   </sheetData>
@@ -20701,7 +20721,7 @@
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D67" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.15">
@@ -21344,7 +21364,7 @@
     </row>
     <row r="6" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D6" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
     </row>
   </sheetData>
@@ -21750,15 +21770,15 @@
         <v>312</v>
       </c>
       <c r="E4" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D6" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="E6" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.15">
@@ -21798,7 +21818,7 @@
         <v>320</v>
       </c>
       <c r="D5" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.15">
@@ -21816,12 +21836,12 @@
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
-        <v>2149</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E15" t="s">
-        <v>2150</v>
+        <v>2146</v>
       </c>
     </row>
   </sheetData>
@@ -21877,12 +21897,12 @@
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.15">
@@ -21892,27 +21912,27 @@
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D15" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
   </sheetData>
@@ -21928,7 +21948,7 @@
   <dimension ref="B5:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22081,7 +22101,7 @@
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>2224</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.15">
@@ -22141,7 +22161,7 @@
         <v>685</v>
       </c>
       <c r="J30" t="s">
-        <v>2225</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.15">
@@ -22847,17 +22867,17 @@
   <sheetData>
     <row r="4" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D6" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E8" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
   </sheetData>
@@ -22981,35 +23001,35 @@
   <sheetData>
     <row r="4" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D6" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="G6" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E8" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E9" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.15">
@@ -23019,32 +23039,32 @@
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F15" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F17" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="18" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F18" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F19" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="20" spans="5:7" x14ac:dyDescent="0.15">
@@ -23054,42 +23074,42 @@
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F21" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="22" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F22" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="23" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F23" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="24" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F24" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="26" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E26" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="27" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E27" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="29" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E29" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="31" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F31" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="32" spans="5:7" x14ac:dyDescent="0.15">
@@ -23097,7 +23117,7 @@
         <v>625</v>
       </c>
       <c r="G32" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.15">
@@ -23105,7 +23125,7 @@
         <v>625</v>
       </c>
       <c r="G33" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.15">
@@ -23113,7 +23133,7 @@
         <v>625</v>
       </c>
       <c r="G34" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.15">
@@ -23121,7 +23141,7 @@
         <v>625</v>
       </c>
       <c r="G35" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.15">
@@ -23129,32 +23149,32 @@
         <v>625</v>
       </c>
       <c r="G36" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="37" spans="5:8" x14ac:dyDescent="0.15">
       <c r="G37" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="38" spans="5:8" x14ac:dyDescent="0.15">
       <c r="H38" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="39" spans="5:8" x14ac:dyDescent="0.15">
       <c r="H39" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="40" spans="5:8" x14ac:dyDescent="0.15">
       <c r="G40" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="41" spans="5:8" x14ac:dyDescent="0.15">
       <c r="G41" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="42" spans="5:8" x14ac:dyDescent="0.15">
@@ -23162,7 +23182,7 @@
         <v>625</v>
       </c>
       <c r="G42" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="43" spans="5:8" x14ac:dyDescent="0.15">
@@ -23170,7 +23190,7 @@
         <v>625</v>
       </c>
       <c r="G43" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="44" spans="5:8" x14ac:dyDescent="0.15">
@@ -23178,7 +23198,7 @@
         <v>625</v>
       </c>
       <c r="G44" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="45" spans="5:8" x14ac:dyDescent="0.15">
@@ -23186,7 +23206,7 @@
         <v>625</v>
       </c>
       <c r="G45" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="46" spans="5:8" x14ac:dyDescent="0.15">
@@ -23194,123 +23214,123 @@
         <v>625</v>
       </c>
       <c r="G46" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="47" spans="5:8" x14ac:dyDescent="0.15">
       <c r="F47" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="48" spans="5:8" x14ac:dyDescent="0.15">
       <c r="E48" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="49" spans="5:11" x14ac:dyDescent="0.15">
       <c r="F49" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="50" spans="5:11" x14ac:dyDescent="0.15">
       <c r="F50" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="51" spans="5:11" x14ac:dyDescent="0.15">
       <c r="F51" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="52" spans="5:11" x14ac:dyDescent="0.15">
       <c r="F52" t="s">
+        <v>1584</v>
+      </c>
+      <c r="K52" t="s">
         <v>1588</v>
-      </c>
-      <c r="K52" t="s">
-        <v>1592</v>
       </c>
     </row>
     <row r="53" spans="5:11" x14ac:dyDescent="0.15">
       <c r="F53" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="K53" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="55" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E55" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="56" spans="5:11" x14ac:dyDescent="0.15">
       <c r="F56" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="57" spans="5:11" x14ac:dyDescent="0.15">
       <c r="G57" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="58" spans="5:11" x14ac:dyDescent="0.15">
       <c r="G58" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="59" spans="5:11" x14ac:dyDescent="0.15">
       <c r="G59" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="60" spans="5:11" x14ac:dyDescent="0.15">
       <c r="G60" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="61" spans="5:11" x14ac:dyDescent="0.15">
       <c r="G61" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="62" spans="5:11" x14ac:dyDescent="0.15">
       <c r="G62" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="63" spans="5:11" x14ac:dyDescent="0.15">
       <c r="F63" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="65" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E65" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="67" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F67" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="68" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F68" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="69" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F69" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="70" spans="5:7" x14ac:dyDescent="0.15">
       <c r="G70" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="71" spans="5:7" x14ac:dyDescent="0.15">
       <c r="G71" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="73" spans="5:7" x14ac:dyDescent="0.15">
@@ -23320,42 +23340,42 @@
     </row>
     <row r="74" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E74" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="76" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F76" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="77" spans="5:7" x14ac:dyDescent="0.15">
       <c r="G77" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="78" spans="5:7" x14ac:dyDescent="0.15">
       <c r="G78" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="79" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F79" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="81" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E81" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="83" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F83" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="84" spans="5:7" x14ac:dyDescent="0.15">
       <c r="G84" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="85" spans="5:7" x14ac:dyDescent="0.15">
@@ -23363,7 +23383,7 @@
         <v>625</v>
       </c>
       <c r="G85" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="86" spans="5:7" x14ac:dyDescent="0.15">
@@ -23371,7 +23391,7 @@
         <v>625</v>
       </c>
       <c r="G86" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="87" spans="5:7" x14ac:dyDescent="0.15">
@@ -23379,7 +23399,7 @@
         <v>625</v>
       </c>
       <c r="G87" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="88" spans="5:7" x14ac:dyDescent="0.15">
@@ -23387,7 +23407,7 @@
         <v>625</v>
       </c>
       <c r="G88" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="89" spans="5:7" x14ac:dyDescent="0.15">
@@ -23395,7 +23415,7 @@
         <v>625</v>
       </c>
       <c r="G89" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="90" spans="5:7" x14ac:dyDescent="0.15">
@@ -23403,7 +23423,7 @@
         <v>625</v>
       </c>
       <c r="G90" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="91" spans="5:7" x14ac:dyDescent="0.15">
@@ -23411,7 +23431,7 @@
         <v>625</v>
       </c>
       <c r="G91" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="92" spans="5:7" x14ac:dyDescent="0.15">
@@ -23419,267 +23439,267 @@
         <v>625</v>
       </c>
       <c r="G92" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="93" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F93" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="95" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E95" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="97" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F97" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="98" spans="5:7" x14ac:dyDescent="0.15">
       <c r="G98" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="99" spans="5:7" x14ac:dyDescent="0.15">
       <c r="G99" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="100" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F100" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="101" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E101" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="102" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F102" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="103" spans="5:7" x14ac:dyDescent="0.15">
       <c r="G103" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="104" spans="5:7" x14ac:dyDescent="0.15">
       <c r="G104" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="105" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F105" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="107" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E107" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="109" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E109" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="110" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E110" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="111" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E111" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="112" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E112" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="113" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E113" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="114" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E114" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="115" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E115" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="117" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E117" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="119" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E119" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="120" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E120" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="122" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E122" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="123" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E123" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="124" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E124" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="125" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E125" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="127" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E127" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E129" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E130" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E131" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="133" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E133" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="134" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E134" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="135" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E135" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="136" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E136" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="137" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E137" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="139" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E139" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="140" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E140" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="141" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E141" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="142" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E142" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="143" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E143" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="145" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E145" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="146" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E146" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="147" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E147" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="148" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E148" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="149" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E149" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="150" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E150" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="151" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E151" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="152" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E152" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="153" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E153" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="154" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E154" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="155" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E155" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="156" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E156" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="157" spans="5:5" x14ac:dyDescent="0.15">
@@ -23689,47 +23709,47 @@
     </row>
     <row r="158" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E158" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="159" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E159" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="160" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E160" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="161" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E161" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="162" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E162" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="163" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E163" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="164" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E164" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="165" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E165" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="166" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E166" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="167" spans="5:5" x14ac:dyDescent="0.15">
@@ -23739,42 +23759,42 @@
     </row>
     <row r="168" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E168" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="169" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E169" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="170" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E170" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="171" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E171" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="172" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E172" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="173" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E173" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="174" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E174" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="175" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E175" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="176" spans="5:5" x14ac:dyDescent="0.15">
@@ -23784,22 +23804,22 @@
     </row>
     <row r="178" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E178" t="s">
-        <v>2128</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="181" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E181" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="184" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E184" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="186" spans="5:6" x14ac:dyDescent="0.15">
       <c r="F186" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
     </row>
   </sheetData>
@@ -23822,65 +23842,65 @@
   <sheetData>
     <row r="4" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="E17" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
-        <v>2085</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D29" t="s">
-        <v>2086</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D31" t="s">
-        <v>2084</v>
+        <v>2080</v>
       </c>
     </row>
   </sheetData>
@@ -23948,7 +23968,7 @@
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D11" s="3" t="s">
-        <v>2117</v>
+        <v>2113</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>1100</v>
@@ -23964,7 +23984,7 @@
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D13" s="3" t="s">
-        <v>2116</v>
+        <v>2112</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>955</v>
@@ -24004,10 +24024,10 @@
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
-        <v>2103</v>
+        <v>2099</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.15">
@@ -24015,10 +24035,10 @@
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.15">
@@ -24056,7 +24076,7 @@
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D33" s="3" t="s">
-        <v>2123</v>
+        <v>2119</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>950</v>
@@ -24102,37 +24122,37 @@
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C49" s="3" t="s">
-        <v>2119</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D50" s="59" t="s">
-        <v>2120</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D51" s="3" t="s">
-        <v>2121</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D52" s="3" t="s">
-        <v>2122</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D53" s="3" t="s">
-        <v>2118</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E55" s="3" t="s">
-        <v>2125</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="56" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E56" s="3" t="s">
-        <v>2126</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.15">
@@ -24232,17 +24252,17 @@
     </row>
     <row r="77" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C77" s="3" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="79" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D79" s="3" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="83" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D83" s="3" t="s">
-        <v>2135</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="115" spans="3:8" x14ac:dyDescent="0.15">
@@ -24345,69 +24365,69 @@
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>2088</v>
+        <v>2084</v>
       </c>
       <c r="D7" t="s">
-        <v>2089</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>2090</v>
+        <v>2086</v>
       </c>
       <c r="D9" t="s">
-        <v>2102</v>
+        <v>2098</v>
       </c>
       <c r="G9" t="s">
-        <v>2091</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
-        <v>2100</v>
+        <v>2096</v>
       </c>
       <c r="E11" t="s">
-        <v>2099</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E12" t="s">
-        <v>2098</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E13" t="s">
-        <v>2092</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E14" t="s">
-        <v>2093</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E15" t="s">
-        <v>2094</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E16" t="s">
-        <v>2095</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E17" t="s">
-        <v>2096</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E19" t="s">
-        <v>2097</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D21" t="s">
-        <v>2101</v>
+        <v>2097</v>
       </c>
     </row>
   </sheetData>
@@ -24429,7 +24449,7 @@
   <sheetData>
     <row r="5" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E5" t="s">
-        <v>2087</v>
+        <v>2083</v>
       </c>
     </row>
   </sheetData>
@@ -24454,7 +24474,7 @@
   <sheetData>
     <row r="4" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>2124</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.15">
@@ -24670,22 +24690,22 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
-        <v>2104</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
-        <v>2105</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
-        <v>2106</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
-        <v>2127</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.15">
@@ -24715,10 +24735,10 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="C33" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="105" spans="3:7" x14ac:dyDescent="0.15">
@@ -24851,7 +24871,7 @@
     </row>
     <row r="93" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C93" t="s">
-        <v>2107</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.15">
@@ -24861,87 +24881,87 @@
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D96" t="s">
-        <v>2108</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D97" t="s">
-        <v>2109</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D98" t="s">
-        <v>2110</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D99" t="s">
-        <v>2111</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D100" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D101" t="s">
-        <v>2113</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C103" t="s">
-        <v>2114</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C105" t="s">
-        <v>2227</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C106" t="s">
-        <v>2228</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="108" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C108" t="s">
-        <v>2229</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C110" t="s">
-        <v>2230</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="112" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C112" t="s">
-        <v>2231</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C114" t="s">
-        <v>2115</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C132" t="s">
-        <v>2226</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C135" t="s">
-        <v>2243</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C137" t="s">
-        <v>2244</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C139" t="s">
-        <v>2245</v>
+        <v>2241</v>
       </c>
     </row>
   </sheetData>
@@ -25017,1185 +25037,1185 @@
   <sheetData>
     <row r="1" spans="1:2" s="49" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="49" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="44" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="46" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="47" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="48" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="47" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" s="46" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="47" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" s="46" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="47" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="48" t="s">
-        <v>2056</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A12" s="49" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13" s="46" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="44" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="46" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="47" t="s">
-        <v>1784</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B17" s="46" t="s">
-        <v>1785</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="47" t="s">
-        <v>1786</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B19" s="46" t="s">
-        <v>1787</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B20" s="46" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="44" t="s">
-        <v>1789</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B22" s="46" t="s">
-        <v>1790</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A23" s="49" t="s">
-        <v>1791</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="46" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="46" t="s">
-        <v>1793</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="46" t="s">
-        <v>1794</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="46" t="s">
-        <v>1795</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="46" t="s">
-        <v>1796</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="46" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="44" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="47" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B32" s="46" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="47" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B34" s="46" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="47" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" s="46" t="s">
-        <v>2057</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="47" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" s="46" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="47" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B40" s="46" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="47" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="46" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="47" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="46" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="50" t="s">
-        <v>1812</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="50" t="s">
-        <v>1813</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="50" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="50" t="s">
-        <v>1815</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="47" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B50" s="46" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="47" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B52" s="46" t="s">
-        <v>1819</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="47" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B54" s="46" t="s">
-        <v>1821</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="44" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="47" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="46" t="s">
-        <v>1824</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="47" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="46" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="47" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="46" t="s">
-        <v>1828</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="47" t="s">
-        <v>1829</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="46" t="s">
-        <v>1830</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="47" t="s">
-        <v>1831</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B65" s="46" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B66" s="46" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="46" t="s">
-        <v>1834</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="47" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B69" s="48" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B70" s="46" t="s">
-        <v>1836</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="46" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="46" t="s">
-        <v>1838</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="46" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B74" s="50" t="s">
-        <v>1840</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="47" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B76" s="48" t="s">
-        <v>2059</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B77" s="50" t="s">
-        <v>1842</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="47" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B79" s="48" t="s">
-        <v>2060</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B80" s="50" t="s">
-        <v>1844</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="47" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="46" t="s">
-        <v>1846</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="46" t="s">
-        <v>2061</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="50" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="47" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B86" s="48" t="s">
-        <v>2062</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B87" s="50" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="47" t="s">
-        <v>1850</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B89" s="48" t="s">
-        <v>2063</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B90" s="50" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="47" t="s">
-        <v>1852</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B92" s="46" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="46" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="50" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="47" t="s">
-        <v>1856</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B96" s="46" t="s">
-        <v>1857</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="47" t="s">
-        <v>1858</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B98" s="48" t="s">
-        <v>2064</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="44" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="47" t="s">
-        <v>2065</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="46" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="47" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B103" s="46" t="s">
-        <v>1862</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="47" t="s">
-        <v>1863</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B105" s="46" t="s">
-        <v>1864</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="46" t="s">
-        <v>1865</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="46" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="46" t="s">
-        <v>1867</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="46" t="s">
-        <v>1868</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="47" t="s">
-        <v>1869</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B111" s="46" t="s">
-        <v>1870</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="47" t="s">
-        <v>1871</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B113" s="46" t="s">
-        <v>1872</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="47" t="s">
-        <v>1873</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="46" t="s">
-        <v>1874</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="47" t="s">
-        <v>1875</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B117" s="46" t="s">
-        <v>1876</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="47" t="s">
-        <v>1877</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B119" s="46" t="s">
-        <v>1878</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="47" t="s">
-        <v>1879</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B121" s="46" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="47" t="s">
-        <v>2066</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="46" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="47" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="46" t="s">
-        <v>1883</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="46" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="46" t="s">
-        <v>1885</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="46" t="s">
-        <v>1886</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" s="46" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="46" t="s">
-        <v>1888</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="46" t="s">
-        <v>1889</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" s="46" t="s">
-        <v>1890</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" s="46" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" s="46" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" s="48" t="s">
-        <v>1893</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" s="46" t="s">
-        <v>1894</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="46" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="46" t="s">
-        <v>2067</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="46" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="46" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" s="47" t="s">
-        <v>1898</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B142" s="46" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" s="46" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="46" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145" s="46" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A146" s="46" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A147" s="46" t="s">
-        <v>2068</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A148" s="46" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A149" s="46" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A150" s="48" t="s">
-        <v>2069</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" s="47" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A152" s="48" t="s">
-        <v>2070</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A153" s="47" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A154" s="46" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A155" s="46" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156" s="46" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A157" s="46" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158" s="46" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A159" s="46" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A160" s="46" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" s="47" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B162" s="46" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B163" s="46" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B164" s="46" t="s">
-        <v>1918</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B165" s="46" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B166" s="46" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" s="47" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B168" s="48" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B169" s="46" t="s">
-        <v>1922</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B170" s="46" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" s="46" t="s">
-        <v>1924</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A172" s="46" t="s">
-        <v>1925</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B173" s="48" t="s">
-        <v>2072</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A174" s="47" t="s">
-        <v>1926</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B175" s="46" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A176" s="47" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B177" s="46" t="s">
-        <v>1929</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B178" s="46" t="s">
-        <v>1930</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B179" s="46" t="s">
-        <v>1931</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A180" s="46" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A181" s="46" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A182" s="48" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B183" s="46" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A184" s="47" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A185" s="46" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B186" s="46" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B187" s="46" t="s">
-        <v>1931</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B188" s="46" t="s">
-        <v>1939</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A189" s="48" t="s">
-        <v>1940</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B190" s="46" t="s">
-        <v>1941</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A191" s="47" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B192" s="46" t="s">
-        <v>1943</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B193" s="46" t="s">
-        <v>1944</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B194" s="46" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A195" s="46" t="s">
-        <v>1946</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B196" s="46" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B197" s="46" t="s">
-        <v>1948</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B198" s="48" t="s">
-        <v>1949</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B199" s="48" t="s">
-        <v>1950</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B200" s="46" t="s">
-        <v>1951</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B201" s="46" t="s">
-        <v>1952</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A202" s="47" t="s">
-        <v>1953</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A203" s="46" t="s">
-        <v>1954</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A204" s="46" t="s">
-        <v>1955</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A205" s="46" t="s">
-        <v>1956</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A206" s="46" t="s">
-        <v>1957</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A207" s="48" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A208" s="46" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A209" s="46" t="s">
-        <v>1960</v>
+        <v>1956</v>
       </c>
       <c r="B209" s="46" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A210" s="46" t="s">
-        <v>1889</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A211" s="46" t="s">
-        <v>1890</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A212" s="46" t="s">
-        <v>1962</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A213" s="46" t="s">
-        <v>1963</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A214" s="46" t="s">
-        <v>1964</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A215" s="46" t="s">
-        <v>1965</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A216" s="46" t="s">
-        <v>1966</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A217" s="46" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A218" s="46" t="s">
-        <v>1968</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A219" s="46" t="s">
-        <v>1969</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B220" s="46" t="s">
-        <v>1970</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A221" s="44" t="s">
-        <v>1971</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A222" s="46" t="s">
-        <v>1972</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A223" s="47" t="s">
-        <v>1973</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A224" s="46" t="s">
-        <v>2073</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A225" s="46" t="s">
-        <v>2074</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A226" s="46" t="s">
-        <v>1974</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A227" s="46" t="s">
-        <v>2075</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A228" s="46" t="s">
-        <v>1975</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A229" s="46" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A230" s="46" t="s">
-        <v>1976</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A231" s="46" t="s">
-        <v>1977</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A232" s="47" t="s">
-        <v>1978</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A233" s="47" t="s">
-        <v>1979</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A234" s="46" t="s">
-        <v>1980</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A235" s="46" t="s">
-        <v>2077</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A236" s="46" t="s">
-        <v>2078</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.15">
@@ -26203,200 +26223,200 @@
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A238" s="46" t="s">
-        <v>1981</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A239" s="46" t="s">
-        <v>2079</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A240" s="46" t="s">
-        <v>2080</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A241" s="46" t="s">
-        <v>2081</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A242" s="47" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A243" s="46" t="s">
-        <v>1983</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A244" s="48" t="s">
-        <v>2082</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A245" s="46" t="s">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="B245" s="46" t="s">
-        <v>2083</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A246" s="47" t="s">
-        <v>1985</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A247" s="46" t="s">
-        <v>1986</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A248" s="46" t="s">
-        <v>1987</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A249" s="46" t="s">
-        <v>1987</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A250" s="46" t="s">
-        <v>1987</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A251" s="46" t="s">
-        <v>1988</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A252" s="47" t="s">
-        <v>1989</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B253" s="46" t="s">
-        <v>1990</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A254" s="47" t="s">
-        <v>1991</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B255" s="46" t="s">
-        <v>1992</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A256" s="49" t="s">
-        <v>1993</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B257" s="46" t="s">
-        <v>1994</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B258" s="50" t="s">
-        <v>1995</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A259" s="46" t="s">
-        <v>1996</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B260" s="46" t="s">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="C260" s="46" t="s">
-        <v>1998</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B261" s="46" t="s">
-        <v>1999</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B262" s="46" t="s">
-        <v>2000</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B263" s="46" t="s">
-        <v>2001</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B264" s="46" t="s">
-        <v>2002</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B265" s="46" t="s">
-        <v>2003</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A266" s="52" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B266" s="53" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C266" s="53" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D266" s="53" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E266" s="53" t="s">
         <v>2004</v>
       </c>
-      <c r="B266" s="53" t="s">
-        <v>2005</v>
-      </c>
-      <c r="C266" s="53" t="s">
-        <v>2006</v>
-      </c>
-      <c r="D266" s="53" t="s">
-        <v>2007</v>
-      </c>
-      <c r="E266" s="53" t="s">
-        <v>2008</v>
-      </c>
       <c r="F266" s="53" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A267" s="54" t="s">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="B267" s="55" t="s">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C267" s="43"/>
       <c r="D267" s="43"/>
       <c r="E267" s="55" t="s">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="F267" s="56" t="s">
-        <v>2012</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="48" x14ac:dyDescent="0.15">
       <c r="A268" s="68" t="s">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="B268" s="68" t="s">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C268" s="70"/>
       <c r="D268" s="70"/>
       <c r="E268" s="57" t="s">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="F268" s="72" t="s">
-        <v>2016</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="84.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -26405,221 +26425,221 @@
       <c r="C269" s="71"/>
       <c r="D269" s="71"/>
       <c r="E269" s="55" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="F269" s="73"/>
     </row>
     <row r="270" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A270" s="54" t="s">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="B270" s="55" t="s">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C270" s="43"/>
       <c r="D270" s="43"/>
       <c r="E270" s="55" t="s">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="F270" s="56" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A271" s="54" t="s">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="B271" s="55" t="s">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C271" s="43"/>
       <c r="D271" s="43"/>
       <c r="E271" s="55" t="s">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="F271" s="56" t="s">
-        <v>2023</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A272" s="54" t="s">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="B272" s="55" t="s">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="C272" s="43"/>
       <c r="D272" s="43"/>
       <c r="E272" s="55" t="s">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="F272" s="56" t="s">
-        <v>2027</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="84.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A273" s="54" t="s">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="B273" s="55" t="s">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="C273" s="43"/>
       <c r="D273" s="43"/>
       <c r="E273" s="55" t="s">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="F273" s="56" t="s">
-        <v>2030</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A274" s="54" t="s">
-        <v>2031</v>
+        <v>2027</v>
       </c>
       <c r="B274" s="55" t="s">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C274" s="43"/>
       <c r="D274" s="43"/>
       <c r="E274" s="55" t="s">
-        <v>2032</v>
+        <v>2028</v>
       </c>
       <c r="F274" s="43"/>
     </row>
     <row r="275" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A275" s="54" t="s">
-        <v>2033</v>
+        <v>2029</v>
       </c>
       <c r="B275" s="55" t="s">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C275" s="43"/>
       <c r="D275" s="43"/>
       <c r="E275" s="55" t="s">
-        <v>2034</v>
+        <v>2030</v>
       </c>
       <c r="F275" s="43"/>
     </row>
     <row r="276" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A276" s="54" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B276" s="55" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C276" s="56" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D276" s="56" t="s">
+        <v>2033</v>
+      </c>
+      <c r="E276" s="55" t="s">
+        <v>2034</v>
+      </c>
+      <c r="F276" s="56" t="s">
         <v>2035</v>
-      </c>
-      <c r="B276" s="55" t="s">
-        <v>2018</v>
-      </c>
-      <c r="C276" s="56" t="s">
-        <v>2036</v>
-      </c>
-      <c r="D276" s="56" t="s">
-        <v>2037</v>
-      </c>
-      <c r="E276" s="55" t="s">
-        <v>2038</v>
-      </c>
-      <c r="F276" s="56" t="s">
-        <v>2039</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="72.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A277" s="54" t="s">
-        <v>2040</v>
+        <v>2036</v>
       </c>
       <c r="B277" s="55" t="s">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C277" s="56" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="D277" s="56" t="s">
-        <v>2041</v>
+        <v>2037</v>
       </c>
       <c r="E277" s="55" t="s">
+        <v>2034</v>
+      </c>
+      <c r="F277" s="56" t="s">
         <v>2038</v>
-      </c>
-      <c r="F277" s="56" t="s">
-        <v>2042</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A278" s="54" t="s">
-        <v>2043</v>
+        <v>2039</v>
       </c>
       <c r="B278" s="55" t="s">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C278" s="56" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="D278" s="56" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="E278" s="55" t="s">
-        <v>2044</v>
+        <v>2040</v>
       </c>
       <c r="F278" s="56" t="s">
-        <v>2045</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A279" s="54" t="s">
-        <v>2046</v>
+        <v>2042</v>
       </c>
       <c r="B279" s="55" t="s">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C279" s="56" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="D279" s="56" t="s">
-        <v>2041</v>
+        <v>2037</v>
       </c>
       <c r="E279" s="55" t="s">
-        <v>2044</v>
+        <v>2040</v>
       </c>
       <c r="F279" s="56" t="s">
-        <v>2047</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A280" s="54" t="s">
-        <v>2048</v>
+        <v>2044</v>
       </c>
       <c r="B280" s="55" t="s">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="C280" s="43"/>
       <c r="D280" s="43"/>
       <c r="E280" s="55" t="s">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="F280" s="56" t="s">
-        <v>2050</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A281" s="46" t="s">
-        <v>2051</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A282" s="46" t="s">
-        <v>2052</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A283" s="46" t="s">
-        <v>2053</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A284" s="48" t="s">
-        <v>2054</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B285" s="46" t="s">
-        <v>2055</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -27269,7 +27289,7 @@
         <v>1481</v>
       </c>
       <c r="D3" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.15">
@@ -27285,7 +27305,7 @@
         <v>1489</v>
       </c>
       <c r="D7" t="s">
-        <v>2242</v>
+        <v>2238</v>
       </c>
     </row>
   </sheetData>
@@ -27391,7 +27411,7 @@
   <sheetData>
     <row r="3" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="E3" t="s">
         <v>1500</v>
@@ -27399,15 +27419,15 @@
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="E5" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="E7" t="s">
         <v>1500</v>
@@ -27432,23 +27452,23 @@
   <sheetData>
     <row r="2" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="E2" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="E4" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="E6" t="s">
         <v>1502</v>
@@ -27473,80 +27493,80 @@
   <sheetData>
     <row r="2" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="E2" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D16" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="F16" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="F17" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D21" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="F21" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D22" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="F22" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="F26" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.15">
@@ -27559,45 +27579,45 @@
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C30" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D32" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D33" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="F33" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D35" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E36" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.15">
       <c r="F38" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.15">
       <c r="F39" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D42" s="18" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.15">
@@ -27623,32 +27643,32 @@
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C51" s="16" t="s">
-        <v>2129</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C53" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C55" t="s">
-        <v>2131</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C57" t="s">
-        <v>2132</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C59" t="s">
-        <v>2134</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C62" t="s">
-        <v>2133</v>
+        <v>2129</v>
       </c>
     </row>
   </sheetData>
@@ -27664,28 +27684,28 @@
   <sheetPr codeName="Sheet68"/>
   <dimension ref="D4:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="4" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D4" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="7" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="11" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="G11" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
     </row>
   </sheetData>
@@ -27699,31 +27719,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="3" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
+        <v>2244</v>
+      </c>
+      <c r="D3" t="s">
         <v>2248</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2247</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>2249</v>
+        <v>2245</v>
       </c>
       <c r="D5" t="s">
-        <v>2251</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>2250</v>
+        <v>2246</v>
       </c>
     </row>
   </sheetData>
@@ -27769,61 +27789,61 @@
   <sheetData>
     <row r="3" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>2152</v>
+        <v>2148</v>
       </c>
       <c r="D3" t="s">
-        <v>2151</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>2139</v>
+        <v>2135</v>
       </c>
       <c r="D5" t="s">
-        <v>2140</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>2153</v>
+        <v>2149</v>
       </c>
       <c r="D6" t="s">
-        <v>2140</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
-        <v>2141</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
-        <v>2142</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D14" t="s">
-        <v>2143</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D15" t="s">
-        <v>2144</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D16" t="s">
-        <v>2145</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
-        <v>2146</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D18" t="s">
-        <v>2147</v>
+        <v>2143</v>
       </c>
     </row>
   </sheetData>
@@ -27838,8 +27858,8 @@
   <sheetPr codeName="Sheet69"/>
   <dimension ref="A2:AS191"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M38" sqref="M4:N38"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="Q79" sqref="H77:Q79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28019,7 +28039,7 @@
         <v>1065</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>2155</v>
+        <v>2151</v>
       </c>
       <c r="L4" s="27" t="str">
         <f>CONCATENATE(J4,G4,K4)</f>
@@ -28029,10 +28049,10 @@
         <v>1334</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>2186</v>
+        <v>2182</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>2186</v>
+        <v>2182</v>
       </c>
       <c r="P4" s="22" t="s">
         <v>1335</v>
@@ -28157,7 +28177,7 @@
         <v>1065</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>2156</v>
+        <v>2152</v>
       </c>
       <c r="L5" s="27" t="str">
         <f t="shared" ref="L5:L9" si="2">CONCATENATE(J5,G5,K5)</f>
@@ -28167,10 +28187,10 @@
         <v>1334</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>2187</v>
+        <v>2183</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>2187</v>
+        <v>2183</v>
       </c>
       <c r="P5" s="22" t="s">
         <v>1343</v>
@@ -28297,7 +28317,7 @@
         <v>1065</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>2157</v>
+        <v>2153</v>
       </c>
       <c r="L6" s="27" t="str">
         <f t="shared" si="2"/>
@@ -28307,10 +28327,10 @@
         <v>1334</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>2188</v>
+        <v>2184</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>2188</v>
+        <v>2184</v>
       </c>
       <c r="P6" s="22"/>
       <c r="Q6" s="27"/>
@@ -28375,7 +28395,7 @@
         <v>1065</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>2158</v>
+        <v>2154</v>
       </c>
       <c r="L7" s="27" t="str">
         <f t="shared" si="2"/>
@@ -28385,10 +28405,10 @@
         <v>1334</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>2189</v>
+        <v>2185</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>2189</v>
+        <v>2185</v>
       </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="27"/>
@@ -28453,7 +28473,7 @@
         <v>1065</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>2159</v>
+        <v>2155</v>
       </c>
       <c r="L8" s="27" t="str">
         <f t="shared" si="2"/>
@@ -28463,10 +28483,10 @@
         <v>1334</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>2190</v>
+        <v>2186</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>2190</v>
+        <v>2186</v>
       </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="27"/>
@@ -28531,7 +28551,7 @@
         <v>1065</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>2160</v>
+        <v>2156</v>
       </c>
       <c r="L9" s="27" t="str">
         <f t="shared" si="2"/>
@@ -28541,10 +28561,10 @@
         <v>1334</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>2191</v>
+        <v>2187</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>2191</v>
+        <v>2187</v>
       </c>
       <c r="P9" s="22"/>
       <c r="Q9" s="27"/>
@@ -28609,7 +28629,7 @@
         <v>1065</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>2161</v>
+        <v>2157</v>
       </c>
       <c r="L10" s="27" t="str">
         <f t="shared" ref="L10:L13" si="6">CONCATENATE(J10,G10,K10)</f>
@@ -28619,10 +28639,10 @@
         <v>1334</v>
       </c>
       <c r="N10" s="22" t="s">
-        <v>2192</v>
+        <v>2188</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>2192</v>
+        <v>2188</v>
       </c>
       <c r="P10" s="22"/>
       <c r="Q10" s="27"/>
@@ -28687,7 +28707,7 @@
         <v>1065</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="L11" s="27" t="str">
         <f t="shared" si="6"/>
@@ -28697,10 +28717,10 @@
         <v>1334</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>2193</v>
+        <v>2189</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>2193</v>
+        <v>2189</v>
       </c>
       <c r="P11" s="22"/>
       <c r="Q11" s="27"/>
@@ -28765,7 +28785,7 @@
         <v>1065</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>2163</v>
+        <v>2159</v>
       </c>
       <c r="L12" s="27" t="str">
         <f t="shared" si="6"/>
@@ -28775,10 +28795,10 @@
         <v>1334</v>
       </c>
       <c r="N12" s="29" t="s">
-        <v>2218</v>
+        <v>2214</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>2194</v>
+        <v>2190</v>
       </c>
       <c r="P12" s="22"/>
       <c r="Q12" s="27"/>
@@ -28843,7 +28863,7 @@
         <v>1065</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>2164</v>
+        <v>2160</v>
       </c>
       <c r="L13" s="27" t="str">
         <f t="shared" si="6"/>
@@ -28853,10 +28873,10 @@
         <v>1334</v>
       </c>
       <c r="N13" s="22" t="s">
-        <v>2195</v>
+        <v>2191</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>2195</v>
+        <v>2191</v>
       </c>
       <c r="P13" s="22"/>
       <c r="Q13" s="27"/>
@@ -28921,7 +28941,7 @@
         <v>1065</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>2165</v>
+        <v>2161</v>
       </c>
       <c r="L14" s="27" t="str">
         <f t="shared" ref="L14:L15" si="9">CONCATENATE(J14,G14,K14)</f>
@@ -28931,10 +28951,10 @@
         <v>1334</v>
       </c>
       <c r="N14" s="29" t="s">
-        <v>2219</v>
+        <v>2215</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>2196</v>
+        <v>2192</v>
       </c>
       <c r="P14" s="22"/>
       <c r="Q14" s="27"/>
@@ -28999,7 +29019,7 @@
         <v>1065</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>2166</v>
+        <v>2162</v>
       </c>
       <c r="L15" s="27" t="str">
         <f t="shared" si="9"/>
@@ -29009,10 +29029,10 @@
         <v>1334</v>
       </c>
       <c r="N15" s="22" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
       <c r="P15" s="22"/>
       <c r="Q15" s="27"/>
@@ -29077,7 +29097,7 @@
         <v>1065</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>2167</v>
+        <v>2163</v>
       </c>
       <c r="L16" s="27" t="str">
         <f t="shared" ref="L16:L20" si="12">CONCATENATE(J16,G16,K16)</f>
@@ -29087,10 +29107,10 @@
         <v>1334</v>
       </c>
       <c r="N16" s="29" t="s">
-        <v>2220</v>
+        <v>2216</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="P16" s="22"/>
       <c r="Q16" s="27"/>
@@ -29155,7 +29175,7 @@
         <v>1065</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>2168</v>
+        <v>2164</v>
       </c>
       <c r="L17" s="27" t="str">
         <f t="shared" si="12"/>
@@ -29165,10 +29185,10 @@
         <v>1334</v>
       </c>
       <c r="N17" s="22" t="s">
-        <v>2199</v>
+        <v>2195</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>2199</v>
+        <v>2195</v>
       </c>
       <c r="P17" s="22"/>
       <c r="Q17" s="27"/>
@@ -29233,7 +29253,7 @@
         <v>1065</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>2169</v>
+        <v>2165</v>
       </c>
       <c r="L18" s="27" t="str">
         <f t="shared" si="12"/>
@@ -29243,10 +29263,10 @@
         <v>1334</v>
       </c>
       <c r="N18" s="22" t="s">
-        <v>2200</v>
+        <v>2196</v>
       </c>
       <c r="O18" s="22" t="s">
-        <v>2200</v>
+        <v>2196</v>
       </c>
       <c r="P18" s="22"/>
       <c r="Q18" s="27"/>
@@ -29321,10 +29341,10 @@
         <v>1334</v>
       </c>
       <c r="N19" s="22" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="P19" s="22"/>
       <c r="Q19" s="27"/>
@@ -29389,7 +29409,7 @@
         <v>1065</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>2170</v>
+        <v>2166</v>
       </c>
       <c r="L20" s="27" t="str">
         <f t="shared" si="12"/>
@@ -29399,10 +29419,10 @@
         <v>1334</v>
       </c>
       <c r="N20" s="22" t="s">
-        <v>2201</v>
+        <v>2197</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>2201</v>
+        <v>2197</v>
       </c>
       <c r="P20" s="22"/>
       <c r="Q20" s="27"/>
@@ -29467,7 +29487,7 @@
         <v>1065</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>2171</v>
+        <v>2167</v>
       </c>
       <c r="L21" s="27" t="str">
         <f t="shared" ref="L21:L23" si="15">CONCATENATE(J21,G21,K21)</f>
@@ -29477,10 +29497,10 @@
         <v>1334</v>
       </c>
       <c r="N21" s="22" t="s">
-        <v>2202</v>
+        <v>2198</v>
       </c>
       <c r="O21" s="22" t="s">
-        <v>2202</v>
+        <v>2198</v>
       </c>
       <c r="P21" s="22"/>
       <c r="Q21" s="27"/>
@@ -29545,7 +29565,7 @@
         <v>1065</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>2172</v>
+        <v>2168</v>
       </c>
       <c r="L22" s="27" t="str">
         <f t="shared" si="15"/>
@@ -29555,10 +29575,10 @@
         <v>1334</v>
       </c>
       <c r="N22" s="22" t="s">
-        <v>2203</v>
+        <v>2199</v>
       </c>
       <c r="O22" s="22" t="s">
-        <v>2203</v>
+        <v>2199</v>
       </c>
       <c r="P22" s="22"/>
       <c r="Q22" s="27"/>
@@ -29623,7 +29643,7 @@
         <v>1065</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="L23" s="27" t="str">
         <f t="shared" si="15"/>
@@ -29633,10 +29653,10 @@
         <v>1334</v>
       </c>
       <c r="N23" s="22" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="O23" s="22" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="P23" s="22"/>
       <c r="Q23" s="27"/>
@@ -29701,7 +29721,7 @@
         <v>1065</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>2173</v>
+        <v>2169</v>
       </c>
       <c r="L24" s="27" t="str">
         <f t="shared" ref="L24:L38" si="18">CONCATENATE(J24,G24,K24)</f>
@@ -29711,10 +29731,10 @@
         <v>1334</v>
       </c>
       <c r="N24" s="22" t="s">
-        <v>2204</v>
+        <v>2200</v>
       </c>
       <c r="O24" s="22" t="s">
-        <v>2204</v>
+        <v>2200</v>
       </c>
       <c r="P24" s="22"/>
       <c r="Q24" s="27"/>
@@ -29779,7 +29799,7 @@
         <v>1065</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>2174</v>
+        <v>2170</v>
       </c>
       <c r="L25" s="27" t="str">
         <f t="shared" si="18"/>
@@ -29789,10 +29809,10 @@
         <v>1334</v>
       </c>
       <c r="N25" s="22" t="s">
-        <v>2205</v>
+        <v>2201</v>
       </c>
       <c r="O25" s="22" t="s">
-        <v>2205</v>
+        <v>2201</v>
       </c>
       <c r="P25" s="22"/>
       <c r="Q25" s="27"/>
@@ -29857,7 +29877,7 @@
         <v>1065</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>2175</v>
+        <v>2171</v>
       </c>
       <c r="L26" s="27" t="str">
         <f t="shared" si="18"/>
@@ -29867,10 +29887,10 @@
         <v>1334</v>
       </c>
       <c r="N26" s="22" t="s">
-        <v>2206</v>
+        <v>2202</v>
       </c>
       <c r="O26" s="22" t="s">
-        <v>2206</v>
+        <v>2202</v>
       </c>
       <c r="P26" s="22"/>
       <c r="Q26" s="27"/>
@@ -29935,7 +29955,7 @@
         <v>1065</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>2176</v>
+        <v>2172</v>
       </c>
       <c r="L27" s="27" t="str">
         <f t="shared" si="18"/>
@@ -29945,10 +29965,10 @@
         <v>1334</v>
       </c>
       <c r="N27" s="22" t="s">
-        <v>2207</v>
+        <v>2203</v>
       </c>
       <c r="O27" s="22" t="s">
-        <v>2207</v>
+        <v>2203</v>
       </c>
       <c r="P27" s="22"/>
       <c r="Q27" s="27"/>
@@ -30013,7 +30033,7 @@
         <v>1065</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>2177</v>
+        <v>2173</v>
       </c>
       <c r="L28" s="27" t="str">
         <f t="shared" si="18"/>
@@ -30023,10 +30043,10 @@
         <v>1334</v>
       </c>
       <c r="N28" s="22" t="s">
-        <v>2208</v>
+        <v>2204</v>
       </c>
       <c r="O28" s="22" t="s">
-        <v>2208</v>
+        <v>2204</v>
       </c>
       <c r="P28" s="22"/>
       <c r="Q28" s="27"/>
@@ -30091,7 +30111,7 @@
         <v>1065</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>2178</v>
+        <v>2174</v>
       </c>
       <c r="L29" s="27" t="str">
         <f t="shared" si="18"/>
@@ -30101,10 +30121,10 @@
         <v>1334</v>
       </c>
       <c r="N29" s="29" t="s">
-        <v>2221</v>
+        <v>2217</v>
       </c>
       <c r="O29" s="22" t="s">
-        <v>2209</v>
+        <v>2205</v>
       </c>
       <c r="P29" s="22"/>
       <c r="Q29" s="27"/>
@@ -30169,7 +30189,7 @@
         <v>1065</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="L30" s="27" t="str">
         <f t="shared" si="18"/>
@@ -30179,10 +30199,10 @@
         <v>1334</v>
       </c>
       <c r="N30" s="22" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="O30" s="22" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="P30" s="22"/>
       <c r="Q30" s="27"/>
@@ -30247,7 +30267,7 @@
         <v>1065</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>2179</v>
+        <v>2175</v>
       </c>
       <c r="L31" s="27" t="str">
         <f t="shared" si="18"/>
@@ -30257,10 +30277,10 @@
         <v>1334</v>
       </c>
       <c r="N31" s="22" t="s">
-        <v>2210</v>
+        <v>2206</v>
       </c>
       <c r="O31" s="22" t="s">
-        <v>2210</v>
+        <v>2206</v>
       </c>
       <c r="P31" s="22"/>
       <c r="Q31" s="27"/>
@@ -30325,7 +30345,7 @@
         <v>1065</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>2180</v>
+        <v>2176</v>
       </c>
       <c r="L32" s="27" t="str">
         <f t="shared" si="18"/>
@@ -30335,10 +30355,10 @@
         <v>1334</v>
       </c>
       <c r="N32" s="22" t="s">
-        <v>2211</v>
+        <v>2207</v>
       </c>
       <c r="O32" s="22" t="s">
-        <v>2211</v>
+        <v>2207</v>
       </c>
       <c r="P32" s="22"/>
       <c r="Q32" s="27"/>
@@ -30403,7 +30423,7 @@
         <v>1065</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>2181</v>
+        <v>2177</v>
       </c>
       <c r="L33" s="27" t="str">
         <f t="shared" si="18"/>
@@ -30413,10 +30433,10 @@
         <v>1334</v>
       </c>
       <c r="N33" s="22" t="s">
-        <v>2212</v>
+        <v>2208</v>
       </c>
       <c r="O33" s="22" t="s">
-        <v>2212</v>
+        <v>2208</v>
       </c>
       <c r="P33" s="22"/>
       <c r="Q33" s="27"/>
@@ -30481,7 +30501,7 @@
         <v>1065</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>2182</v>
+        <v>2178</v>
       </c>
       <c r="L34" s="27" t="str">
         <f t="shared" si="18"/>
@@ -30491,10 +30511,10 @@
         <v>1334</v>
       </c>
       <c r="N34" s="22" t="s">
-        <v>2213</v>
+        <v>2209</v>
       </c>
       <c r="O34" s="22" t="s">
-        <v>2213</v>
+        <v>2209</v>
       </c>
       <c r="P34" s="22"/>
       <c r="Q34" s="27"/>
@@ -30559,7 +30579,7 @@
         <v>1065</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>2183</v>
+        <v>2179</v>
       </c>
       <c r="L35" s="27" t="str">
         <f t="shared" si="18"/>
@@ -30569,10 +30589,10 @@
         <v>1334</v>
       </c>
       <c r="N35" s="22" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="O35" s="22" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="P35" s="22"/>
       <c r="Q35" s="27"/>
@@ -30637,7 +30657,7 @@
         <v>1065</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="L36" s="27" t="str">
         <f t="shared" si="18"/>
@@ -30647,10 +30667,10 @@
         <v>1334</v>
       </c>
       <c r="N36" s="60" t="s">
-        <v>2222</v>
+        <v>2218</v>
       </c>
       <c r="O36" s="22" t="s">
-        <v>2215</v>
+        <v>2211</v>
       </c>
       <c r="P36" s="22"/>
       <c r="Q36" s="27"/>
@@ -30715,7 +30735,7 @@
         <v>1065</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>2184</v>
+        <v>2180</v>
       </c>
       <c r="L37" s="27" t="str">
         <f t="shared" si="18"/>
@@ -30725,10 +30745,10 @@
         <v>1334</v>
       </c>
       <c r="N37" s="29" t="s">
-        <v>2223</v>
+        <v>2219</v>
       </c>
       <c r="O37" s="22" t="s">
-        <v>2216</v>
+        <v>2212</v>
       </c>
       <c r="P37" s="22"/>
       <c r="Q37" s="27"/>
@@ -30793,7 +30813,7 @@
         <v>1065</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>2185</v>
+        <v>2181</v>
       </c>
       <c r="L38" s="27" t="str">
         <f t="shared" si="18"/>
@@ -30803,10 +30823,10 @@
         <v>1334</v>
       </c>
       <c r="N38" s="22" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
       <c r="O38" s="22" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
       <c r="P38" s="22"/>
       <c r="Q38" s="27"/>
@@ -31158,7 +31178,7 @@
         <v>1327</v>
       </c>
       <c r="I46" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="J46" s="22" t="s">
         <v>1355</v>
@@ -31179,7 +31199,7 @@
         <v>1327</v>
       </c>
       <c r="R46" s="40" t="s">
-        <v>1502</v>
+        <v>2243</v>
       </c>
       <c r="S46" s="22" t="s">
         <v>1356</v>
@@ -31216,7 +31236,7 @@
         <v>1338</v>
       </c>
       <c r="I47" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="J47" s="22" t="s">
         <v>1356</v>
@@ -31237,7 +31257,7 @@
         <v>1338</v>
       </c>
       <c r="R47" s="40" t="s">
-        <v>1502</v>
+        <v>2243</v>
       </c>
       <c r="S47" s="22" t="s">
         <v>1357</v>
@@ -31274,7 +31294,7 @@
         <v>1344</v>
       </c>
       <c r="I48" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="J48" s="22" t="s">
         <v>1357</v>
@@ -31295,7 +31315,7 @@
         <v>1344</v>
       </c>
       <c r="R48" s="40" t="s">
-        <v>1502</v>
+        <v>2243</v>
       </c>
       <c r="S48" s="22" t="s">
         <v>1358</v>
@@ -31332,7 +31352,7 @@
         <v>1359</v>
       </c>
       <c r="I49" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="J49" s="22" t="s">
         <v>1358</v>
@@ -31353,7 +31373,7 @@
         <v>1359</v>
       </c>
       <c r="R49" s="40" t="s">
-        <v>1502</v>
+        <v>2243</v>
       </c>
       <c r="S49" s="22" t="s">
         <v>1360</v>
@@ -31390,7 +31410,7 @@
         <v>1361</v>
       </c>
       <c r="I50" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="J50" s="22" t="s">
         <v>1362</v>
@@ -31411,7 +31431,7 @@
         <v>1361</v>
       </c>
       <c r="R50" s="40" t="s">
-        <v>1502</v>
+        <v>2243</v>
       </c>
       <c r="S50" s="22" t="s">
         <v>1363</v>
@@ -31448,7 +31468,7 @@
         <v>1364</v>
       </c>
       <c r="I51" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="J51" s="22" t="s">
         <v>1501</v>
@@ -31469,7 +31489,7 @@
         <v>1364</v>
       </c>
       <c r="R51" s="40" t="s">
-        <v>1502</v>
+        <v>2243</v>
       </c>
       <c r="S51" s="22" t="s">
         <v>1365</v>
@@ -31506,7 +31526,7 @@
         <v>1366</v>
       </c>
       <c r="I52" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="J52" s="22" t="s">
         <v>1367</v>
@@ -31525,7 +31545,7 @@
         <v>1366</v>
       </c>
       <c r="R52" s="40" t="s">
-        <v>1502</v>
+        <v>2243</v>
       </c>
       <c r="S52" s="22" t="s">
         <v>1368</v>
@@ -31562,7 +31582,7 @@
         <v>1369</v>
       </c>
       <c r="I53" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="J53" s="22" t="s">
         <v>1363</v>
@@ -31583,7 +31603,7 @@
         <v>1369</v>
       </c>
       <c r="R53" s="40" t="s">
-        <v>1502</v>
+        <v>2243</v>
       </c>
       <c r="S53" s="22" t="s">
         <v>1370</v>
@@ -31620,7 +31640,7 @@
         <v>1371</v>
       </c>
       <c r="I54" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="J54" s="22" t="s">
         <v>1365</v>
@@ -31639,7 +31659,7 @@
       <c r="P54" s="22"/>
       <c r="Q54" s="22"/>
       <c r="R54" s="40" t="s">
-        <v>1502</v>
+        <v>2243</v>
       </c>
       <c r="S54" s="22" t="s">
         <v>1372</v>
@@ -31672,7 +31692,7 @@
         <v>969</v>
       </c>
       <c r="I55" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="J55" s="22" t="s">
         <v>1368</v>
@@ -31718,7 +31738,7 @@
         <v>1373</v>
       </c>
       <c r="I56" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="J56" s="22" t="s">
         <v>1370</v>
@@ -31764,7 +31784,7 @@
         <v>1374</v>
       </c>
       <c r="I57" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="J57" s="22" t="s">
         <v>1375</v>
@@ -31810,7 +31830,7 @@
         <v>1376</v>
       </c>
       <c r="I58" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="J58" s="22" t="s">
         <v>1377</v>
@@ -31856,7 +31876,7 @@
         <v>1378</v>
       </c>
       <c r="I59" s="22" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="J59" s="22" t="s">
         <v>1379</v>
@@ -31900,7 +31920,7 @@
       <c r="G60" s="22"/>
       <c r="H60" s="27"/>
       <c r="I60" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="J60" s="22" t="s">
         <v>1372</v>
@@ -31940,7 +31960,7 @@
       <c r="G61" s="22"/>
       <c r="H61" s="27"/>
       <c r="I61" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="J61" s="22" t="s">
         <v>1483</v>
@@ -31982,7 +32002,7 @@
       <c r="G62" s="22"/>
       <c r="H62" s="27"/>
       <c r="I62" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="J62" s="22" t="s">
         <v>1484</v>
@@ -32024,7 +32044,7 @@
       <c r="G63" s="22"/>
       <c r="H63" s="27"/>
       <c r="I63" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="J63" s="22" t="s">
         <v>1487</v>
@@ -32066,7 +32086,7 @@
       <c r="G64" s="22"/>
       <c r="H64" s="27"/>
       <c r="I64" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="J64" s="22" t="s">
         <v>1486</v>
@@ -32539,25 +32559,25 @@
         <v>1327</v>
       </c>
       <c r="I77" s="22" t="s">
-        <v>1514</v>
+        <v>2249</v>
       </c>
       <c r="J77" s="22" t="s">
-        <v>1516</v>
+        <v>2250</v>
       </c>
       <c r="K77" s="29" t="s">
-        <v>1515</v>
+        <v>2255</v>
       </c>
       <c r="L77" s="27">
         <v>0</v>
       </c>
       <c r="M77" s="22" t="s">
-        <v>1502</v>
+        <v>2243</v>
       </c>
       <c r="N77" s="22" t="s">
         <v>1336</v>
       </c>
       <c r="O77" s="29" t="s">
-        <v>1517</v>
+        <v>2256</v>
       </c>
       <c r="P77" s="22" t="s">
         <v>1389</v>
@@ -32589,16 +32609,36 @@
       <c r="E78" s="22"/>
       <c r="F78" s="22"/>
       <c r="G78" s="22"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="29"/>
-      <c r="L78" s="27"/>
-      <c r="M78" s="22"/>
-      <c r="N78" s="22"/>
-      <c r="O78" s="29"/>
-      <c r="P78" s="22"/>
-      <c r="Q78" s="22"/>
+      <c r="H78" s="27" t="s">
+        <v>1327</v>
+      </c>
+      <c r="I78" s="22" t="s">
+        <v>2249</v>
+      </c>
+      <c r="J78" s="22" t="s">
+        <v>2251</v>
+      </c>
+      <c r="K78" s="29" t="s">
+        <v>2254</v>
+      </c>
+      <c r="L78" s="27">
+        <v>0</v>
+      </c>
+      <c r="M78" s="22" t="s">
+        <v>2243</v>
+      </c>
+      <c r="N78" s="22" t="s">
+        <v>1336</v>
+      </c>
+      <c r="O78" s="29" t="s">
+        <v>2256</v>
+      </c>
+      <c r="P78" s="22" t="s">
+        <v>1389</v>
+      </c>
+      <c r="Q78" s="22" t="s">
+        <v>1390</v>
+      </c>
       <c r="R78" s="22"/>
       <c r="S78" s="22"/>
       <c r="T78" s="22"/>
@@ -32623,16 +32663,36 @@
       <c r="E79" s="22"/>
       <c r="F79" s="22"/>
       <c r="G79" s="22"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="29"/>
-      <c r="L79" s="27"/>
-      <c r="M79" s="22"/>
-      <c r="N79" s="22"/>
-      <c r="O79" s="29"/>
-      <c r="P79" s="22"/>
-      <c r="Q79" s="22"/>
+      <c r="H79" s="27" t="s">
+        <v>1327</v>
+      </c>
+      <c r="I79" s="22" t="s">
+        <v>2249</v>
+      </c>
+      <c r="J79" s="22" t="s">
+        <v>2252</v>
+      </c>
+      <c r="K79" s="29" t="s">
+        <v>2253</v>
+      </c>
+      <c r="L79" s="27">
+        <v>0</v>
+      </c>
+      <c r="M79" s="22" t="s">
+        <v>2243</v>
+      </c>
+      <c r="N79" s="22" t="s">
+        <v>1336</v>
+      </c>
+      <c r="O79" s="29" t="s">
+        <v>2256</v>
+      </c>
+      <c r="P79" s="22" t="s">
+        <v>1389</v>
+      </c>
+      <c r="Q79" s="22" t="s">
+        <v>1390</v>
+      </c>
       <c r="R79" s="22"/>
       <c r="S79" s="22"/>
       <c r="T79" s="22"/>
@@ -33180,13 +33240,13 @@
         <v>9999</v>
       </c>
       <c r="K93" s="22" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="L93" s="22" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="M93" s="22" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="N93" s="22" t="s">
         <v>1327</v>
@@ -33263,13 +33323,13 @@
         <v>9999</v>
       </c>
       <c r="K94" s="22" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="L94" s="22" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="M94" s="22" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="N94" s="22" t="s">
         <v>1327</v>
@@ -33346,13 +33406,13 @@
         <v>9999</v>
       </c>
       <c r="K95" s="22" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="L95" s="22" t="s">
         <v>1402</v>
       </c>
       <c r="M95" s="22" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="N95" s="22" t="s">
         <v>1327</v>
@@ -33429,13 +33489,13 @@
         <v>9999</v>
       </c>
       <c r="K96" s="22" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="L96" s="22" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="M96" s="22" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="N96" s="22" t="s">
         <v>1327</v>
@@ -33512,13 +33572,13 @@
         <v>9999</v>
       </c>
       <c r="K97" s="22" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="L97" s="22" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="M97" s="22" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="N97" s="22" t="s">
         <v>1327</v>
@@ -33595,13 +33655,13 @@
         <v>9999</v>
       </c>
       <c r="K98" s="22" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="L98" s="22" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="M98" s="22" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="N98" s="22" t="s">
         <v>1327</v>
@@ -33678,13 +33738,13 @@
         <v>9999</v>
       </c>
       <c r="K99" s="22" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="L99" s="22" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="M99" s="22" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
       <c r="N99" s="22" t="s">
         <v>1327</v>
@@ -33761,13 +33821,13 @@
         <v>9999</v>
       </c>
       <c r="K100" s="22" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="L100" s="22" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="M100" s="22" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="N100" s="22" t="s">
         <v>1327</v>
@@ -33844,13 +33904,13 @@
         <v>9999</v>
       </c>
       <c r="K101" s="22" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="L101" s="22" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="M101" s="22" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="N101" s="22" t="s">
         <v>1327</v>
@@ -33927,13 +33987,13 @@
         <v>9999</v>
       </c>
       <c r="K102" s="22" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="L102" s="22" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="M102" s="22" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="N102" s="22" t="s">
         <v>1327</v>
@@ -34010,13 +34070,13 @@
         <v>9999</v>
       </c>
       <c r="K103" s="22" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="L103" s="22" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="M103" s="22" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="N103" s="22" t="s">
         <v>1327</v>
@@ -35000,10 +35060,10 @@
       <c r="F130" s="22"/>
       <c r="G130" s="22"/>
       <c r="H130" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="I130" s="42" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="J130" s="34"/>
       <c r="K130" s="28" t="str">
@@ -35041,10 +35101,10 @@
       <c r="F131" s="22"/>
       <c r="G131" s="22"/>
       <c r="H131" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="I131" s="42" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="J131" s="34"/>
       <c r="K131" s="28" t="str">
@@ -35082,10 +35142,10 @@
       <c r="F132" s="22"/>
       <c r="G132" s="22"/>
       <c r="H132" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="I132" s="42" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="J132" s="34"/>
       <c r="K132" s="28" t="str">
@@ -35123,10 +35183,10 @@
       <c r="F133" s="22"/>
       <c r="G133" s="22"/>
       <c r="H133" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="I133" s="42" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="J133" s="34"/>
       <c r="K133" s="28" t="str">
@@ -35164,10 +35224,10 @@
       <c r="F134" s="22"/>
       <c r="G134" s="22"/>
       <c r="H134" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="I134" s="42" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="J134" s="34"/>
       <c r="K134" s="28" t="str">
@@ -35205,10 +35265,10 @@
       <c r="F135" s="22"/>
       <c r="G135" s="22"/>
       <c r="H135" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="I135" s="42" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="J135" s="34"/>
       <c r="K135" s="28" t="str">
@@ -35246,7 +35306,7 @@
       <c r="F136" s="22"/>
       <c r="G136" s="22"/>
       <c r="H136" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="I136" s="42" t="s">
         <v>1402</v>
@@ -35287,7 +35347,7 @@
       <c r="F137" s="22"/>
       <c r="G137" s="22"/>
       <c r="H137" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="I137" s="42" t="s">
         <v>1492</v>
@@ -35328,10 +35388,10 @@
       <c r="F138" s="22"/>
       <c r="G138" s="22"/>
       <c r="H138" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="I138" s="42" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="J138" s="34"/>
       <c r="K138" s="28" t="str">
@@ -35369,10 +35429,10 @@
       <c r="F139" s="22"/>
       <c r="G139" s="22"/>
       <c r="H139" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="I139" s="42" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="J139" s="34"/>
       <c r="K139" s="28" t="str">
@@ -35410,10 +35470,10 @@
       <c r="F140" s="22"/>
       <c r="G140" s="22"/>
       <c r="H140" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="I140" s="42" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="J140" s="34"/>
       <c r="K140" s="28" t="str">
@@ -35451,10 +35511,10 @@
       <c r="F141" s="22"/>
       <c r="G141" s="22"/>
       <c r="H141" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="I141" s="42" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="J141" s="34"/>
       <c r="K141" s="28" t="str">
@@ -35492,10 +35552,10 @@
       <c r="F142" s="22"/>
       <c r="G142" s="22"/>
       <c r="H142" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="I142" s="42" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="J142" s="34"/>
       <c r="K142" s="28" t="str">
@@ -35533,10 +35593,10 @@
       <c r="F143" s="22"/>
       <c r="G143" s="22"/>
       <c r="H143" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="I143" s="42" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="J143" s="34"/>
       <c r="K143" s="28" t="str">
@@ -35574,10 +35634,10 @@
       <c r="F144" s="22"/>
       <c r="G144" s="22"/>
       <c r="H144" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="I144" s="42" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="J144" s="34"/>
       <c r="K144" s="28" t="str">
@@ -35615,10 +35675,10 @@
       <c r="F145" s="22"/>
       <c r="G145" s="22"/>
       <c r="H145" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="I145" s="42" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="J145" s="34"/>
       <c r="K145" s="28" t="str">
@@ -35656,10 +35716,10 @@
       <c r="F146" s="22"/>
       <c r="G146" s="22"/>
       <c r="H146" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="I146" s="42" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="J146" s="34"/>
       <c r="K146" s="28" t="str">
@@ -35697,10 +35757,10 @@
       <c r="F147" s="22"/>
       <c r="G147" s="22"/>
       <c r="H147" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="I147" s="42" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="J147" s="34"/>
       <c r="K147" s="28" t="str">
@@ -35738,10 +35798,10 @@
       <c r="F148" s="22"/>
       <c r="G148" s="22"/>
       <c r="H148" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="I148" s="42" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="J148" s="34"/>
       <c r="K148" s="28" t="str">
@@ -35779,10 +35839,10 @@
       <c r="F149" s="22"/>
       <c r="G149" s="22"/>
       <c r="H149" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="I149" s="42" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="J149" s="34"/>
       <c r="K149" s="28" t="str">
@@ -35820,10 +35880,10 @@
       <c r="F150" s="22"/>
       <c r="G150" s="22"/>
       <c r="H150" s="42" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="I150" s="42" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="J150" s="34"/>
       <c r="K150" s="28" t="str">
@@ -36675,7 +36735,7 @@
         <v>565</v>
       </c>
       <c r="E7" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.15">
@@ -36683,7 +36743,7 @@
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E9" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
     </row>
   </sheetData>
